--- a/medicine/Pharmacie/Pierre_Charles_Rouyer/Pierre_Charles_Rouyer.xlsx
+++ b/medicine/Pharmacie/Pierre_Charles_Rouyer/Pierre_Charles_Rouyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Charles Rouyer, né le 12 mai 1769 à Verdun et mort le 31 août 1831 à Paris[1], est un pharmacien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Charles Rouyer, né le 12 mai 1769 à Verdun et mort le 31 août 1831 à Paris, est un pharmacien français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pharmacien de 3e classe en Égypte, il fait partie de l'expédition d'Égypte et devient pharmacien en chef et directeur de la pharmacie en Égypte.
-De retour en France en 1802, il est nommé pharmacien aux Invalides[2]. Il est promu pharmacien aide-major en 1811.
+De retour en France en 1802, il est nommé pharmacien aux Invalides. Il est promu pharmacien aide-major en 1811.
 Il est nommé chevalier de la Légion d'honneur en 1821.
 </t>
         </is>
